--- a/medicine/Psychotrope/Cervalobélophilie/Cervalobélophilie.xlsx
+++ b/medicine/Psychotrope/Cervalobélophilie/Cervalobélophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cervalob%C3%A9lophilie</t>
+          <t>Cervalobélophilie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cervalobélophilie, qui est une sous-catégorie de la tégestophilie, est le fait de collectionner les étiquettes de bière et/ou les sous-bocks.
 Pour la plupart des collectionneurs, les étiquettes sont répertoriées par pays, par brasserie et par année. Cependant, il est aussi fréquent de rassembler toutes les variantes d'une même marque de la même brasserie, pour voir l'évolution dans le temps. Idéalement, le collectionneur recherche et possède l'étiquette, sa contre-étiquette et sa collerette lorsqu'elles sont présentes, afin d'être complet et préfère une étiquette neuve ou une étiquette parfaite.
